--- a/xlsx/_wiki_指拨开关_intext.xlsx
+++ b/xlsx/_wiki_指拨开关_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>指拨开关</t>
   </si>
@@ -270,12 +270,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Interruptor_DIP</t>
@@ -696,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,7 +1773,7 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1802,7 +1796,7 @@
         <v>94</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1963,29 +1957,6 @@
         <v>108</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_指拨开关_intext.xlsx
+++ b/xlsx/_wiki_指拨开关_intext.xlsx
@@ -23,31 +23,31 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%8C%87%E6%8B%A8%E5%BC%80%E5%85%B3</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E9%97%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%96%8B%E9%97%9C</t>
   </si>
   <si>
     <t>开关</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%88%97%E7%9B%B4%E6%8F%92%E5%B0%81%E8%A3%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%99%E5%88%97%E7%9B%B4%E6%8F%92%E5%B0%81%E8%A3%9D</t>
   </si>
   <si>
     <t>双列直插封装</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E7%94%B5%E8%B7%AF%E6%9D%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E5%88%B7%E7%94%B5%E8%B7%AF%E6%9D%BF</t>
   </si>
   <si>
     <t>印刷电路板</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%B3%E7%B7%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B7%B3%E7%B7%9A</t>
   </si>
   <si>
     <t>跳线</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
     <t>雅达利</t>
@@ -59,31 +59,31 @@
     <t>en-Electrical contacts</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E9%92%89%E6%97%8B%E5%85%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%9E%BA%E9%92%89%E6%97%8B%E5%85%B7</t>
   </si>
   <si>
     <t>螺钉旋具</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%8A%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%97%E8%8A%82</t>
   </si>
   <si>
     <t>字节</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%8C%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%8C%E9%AB%94</t>
   </si>
   <si>
     <t>固件</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E9%9D%A2%E5%AE%89%E8%A3%85%E6%8A%80%E6%9C%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%A8%E9%9D%A2%E5%AE%89%E8%A3%85%E6%8A%80%E6%9C%AF</t>
   </si>
   <si>
     <t>表面安装技术</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E6%A0%87%E5%87%86%E7%BB%93%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B7%A5%E4%B8%9A%E6%A0%87%E5%87%86%E7%BB%93%E6%9E%84</t>
   </si>
   <si>
     <t>工业标准结构</t>
@@ -101,13 +101,13 @@
     <t>en-interrupt request</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94%E4%BD%8D%E5%9D%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A8%98%E6%86%B6%E9%AB%94%E4%BD%8D%E5%9D%80</t>
   </si>
   <si>
     <t>内存位址</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%97%E6%9C%BA</t>
   </si>
   <si>
     <t>街机</t>
@@ -119,13 +119,13 @@
     <t>en-garage door opener</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BB%B3%E7%94%B5%E8%AF%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A0%E7%BB%B3%E7%94%B5%E8%AF%9D</t>
   </si>
   <si>
     <t>无绳电话</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%A3%81%E5%B9%B2%E6%93%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E7%A3%81%E5%B9%B2%E6%93%BE</t>
   </si>
   <si>
     <t>电磁干扰</t>
@@ -137,67 +137,67 @@
     <t>en-rolling code</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E7%A4%BA%E5%8D%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%BE%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
     <t>显示卡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E5%9B%BE%E5%BD%A2%E9%80%82%E9%85%8D%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BD%A9%E8%89%B2%E5%9B%BE%E5%BD%A2%E9%80%82%E9%85%8D%E5%99%A8</t>
   </si>
   <si>
     <t>彩色图形适配器</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E8%89%B2%E6%98%BE%E7%A4%BA%E9%80%82%E9%85%8D%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%95%E8%89%B2%E6%98%BE%E7%A4%BA%E9%80%82%E9%85%8D%E5%99%A8</t>
   </si>
   <si>
     <t>单色显示适配器</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
     <t>消费电子产品</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
     <t>软件</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%96%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%B8%E5%96%AE</t>
   </si>
   <si>
     <t>选单</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%8F%AE%E7%99%BC%E6%80%A7%E8%A8%98%E6%86%B6%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%9E%E6%8F%AE%E7%99%BC%E6%80%A7%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
     <t>非挥发性内存</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%8E%A7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%99%E6%8E%A7</t>
   </si>
   <si>
     <t>遥控</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8A%E6%89%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%8A%E6%89%87</t>
   </si>
   <si>
     <t>吊扇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%87%88%E5%85%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%87%88%E5%85%B7</t>
   </si>
   <si>
     <t>灯具</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%84%E9%A0%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%84%E9%A0%BB</t>
   </si>
   <si>
     <t>射频</t>
@@ -209,7 +209,7 @@
     <t>en-X10 (industry standard)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%AE%B6%E5%BA%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%99%BA%E6%85%A7%E5%AE%B6%E5%BA%AD</t>
   </si>
   <si>
     <t>智慧家庭</t>
@@ -221,25 +221,25 @@
     <t>en-Rotary switch</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%80%81%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%91%E9%80%81%E5%99%A8</t>
   </si>
   <si>
     <t>发送器</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9A%E9%AB%98%E9%A0%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9A%E9%AB%98%E9%A0%BB</t>
   </si>
   <si>
     <t>甚高频</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E9%A2%91%E5%B9%BF%E6%92%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B0%83%E9%A2%91%E5%B9%BF%E6%92%AD</t>
   </si>
   <si>
     <t>调频广播</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E6%8E%A7%E6%8C%AF%E7%9B%AA%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A3%93%E6%8E%A7%E6%8C%AF%E7%9B%AA%E5%99%A8</t>
   </si>
   <si>
     <t>压控振荡器</t>
@@ -251,19 +251,19 @@
     <t>en-DC bias</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E6%B3%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BD%BD%E6%B3%A2</t>
   </si>
   <si>
     <t>载波</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E9%A2%91%E7%8E%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%BF%83%E9%A2%91%E7%8E%87</t>
   </si>
   <si>
     <t>中心频率</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/DIP%E9%96%8B%E9%97%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/DIP%E9%96%8B%E9%97%9C</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
